--- a/RUDN/Importance/Varible_f_class_in_South America.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_South America.xlsx
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1305.504847371644</v>
+        <v>1305.50484737164</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1305.504847371644</v>
+        <v>1305.50484737164</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>887.5502594381625</v>
+        <v>887.5502594381524</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>429.7524900897538</v>
+        <v>429.7524900897544</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>319.1584957449472</v>
+        <v>319.1584957449469</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>317.6934325353014</v>
+        <v>317.6934325353018</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>317.6934325353014</v>
+        <v>317.6934325353018</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>253.9659438955866</v>
+        <v>253.9659438955868</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>253.9024742909873</v>
+        <v>253.9024742909872</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>253.6637813288535</v>
+        <v>253.6637813288537</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>253.6142248874474</v>
+        <v>253.6142248874471</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>253.2078075630425</v>
+        <v>253.2078075630423</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>253.0916813523644</v>
+        <v>253.0916813523642</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>253.0774792452647</v>
+        <v>253.077479245265</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>252.784533957698</v>
+        <v>252.7845339576978</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>246.457775419219</v>
+        <v>246.4577754192273</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>232.1351273148121</v>
+        <v>232.1351273148118</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>178.115465036222</v>
+        <v>178.115465036226</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>152.3481532392325</v>
+        <v>152.3481532392324</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>135.3620795486597</v>
+        <v>135.3620795486642</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>134.0953380619738</v>
+        <v>134.0953380619739</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>134.0751855440117</v>
+        <v>134.0751855440118</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>134.0068279334575</v>
+        <v>134.0068279334576</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>134.0022142954849</v>
+        <v>134.0022142954847</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>123.9243309061192</v>
+        <v>123.9243309061195</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>103.4330655868846</v>
+        <v>103.4330655868865</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>100.7174576453206</v>
+        <v>100.7174576453204</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>86.25817016652609</v>
+        <v>86.25817016652563</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>82.10120750622984</v>
+        <v>82.1012075062295</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>78.24203878793709</v>
+        <v>78.24203878793728</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>73.01903169979839</v>
+        <v>73.01903169979823</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>70.83206487295315</v>
+        <v>70.83206487295293</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>70.83206487295315</v>
+        <v>70.83206487295293</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>70.72924183647403</v>
+        <v>70.72924183647396</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>70.50873238633851</v>
+        <v>70.50873238633862</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>68.42771249096982</v>
+        <v>68.4277124909698</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>66.45439862288859</v>
+        <v>66.45439862288862</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>66.28205267280053</v>
+        <v>66.28205267280056</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>66.25626719489085</v>
+        <v>66.25626719489088</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>65.91712993697669</v>
+        <v>65.91712993697668</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>65.8963011877736</v>
+        <v>65.89630118777359</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>65.71387676301207</v>
+        <v>65.7138767630121</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>61.0421067339932</v>
+        <v>61.04210673399322</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>58.22045217780396</v>
+        <v>58.22045217780394</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>58.16677342063937</v>
+        <v>58.16677342063934</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>54.46899770684427</v>
+        <v>54.4689977068443</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>51.73215402381791</v>
+        <v>51.73215402381788</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>51.72596254837389</v>
+        <v>51.72596254837391</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>50.59940641916459</v>
+        <v>50.5994064191646</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>49.6568480092322</v>
+        <v>49.65684800923218</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>49.36661591892377</v>
+        <v>49.36661591892373</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>48.75021091878564</v>
+        <v>48.75021091878568</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>48.59920530076459</v>
+        <v>48.59920530076462</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>48.56181185946656</v>
+        <v>48.56181185946655</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>46.14393443007329</v>
+        <v>46.14393443006986</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>43.2369698117482</v>
+        <v>43.23696981174817</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>41.52019058584579</v>
+        <v>41.52019058584509</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>40.65788524334553</v>
+        <v>40.65788524334764</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>39.96395877447544</v>
+        <v>39.96395877447545</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>39.95199283861523</v>
+        <v>39.9519928386152</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>39.37585476412864</v>
+        <v>39.37585476412825</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>36.75008124366215</v>
+        <v>36.75008124366216</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>35.97125061546851</v>
+        <v>35.97125061546845</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>35.9547539402625</v>
+        <v>35.95475394026253</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>35.67033734839845</v>
+        <v>35.67033734839842</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>33.95634929327483</v>
+        <v>33.9563492932771</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>33.26134929156088</v>
+        <v>33.26134929156079</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>31.70280223996674</v>
+        <v>31.70280223996656</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>31.45730241814557</v>
+        <v>31.4573024181439</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>29.88412786921312</v>
+        <v>29.88412786921469</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>29.72231145108313</v>
+        <v>29.72231145108598</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>29.68666331422606</v>
+        <v>29.68666331422589</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>29.18535825129445</v>
+        <v>29.18535825129447</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>29.10495480380014</v>
+        <v>29.10495480380011</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>27.74575442664903</v>
+        <v>27.74575442664904</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>27.63898370891127</v>
+        <v>27.63898370891125</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>26.86767984706735</v>
+        <v>26.86767984706823</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>25.90273759935295</v>
+        <v>25.90273759935294</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>25.78584039282794</v>
+        <v>25.78584039282802</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>25.76942638453939</v>
+        <v>25.76942638453941</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>25.76606291596465</v>
+        <v>25.76606291596463</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>25.76602571270292</v>
+        <v>25.76602571270294</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>25.76598268460276</v>
+        <v>25.76598268460278</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>25.73368579462251</v>
+        <v>25.73368579462164</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>25.73368579462251</v>
+        <v>25.73368579462164</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>25.65813312073436</v>
+        <v>25.65813312073433</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>25.54654833539637</v>
+        <v>25.5465483353964</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>25.48607989515134</v>
+        <v>25.48607989515131</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>25.43917674624094</v>
+        <v>25.43917674624099</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>25.43917674624094</v>
+        <v>25.43917674624099</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>25.34632851851313</v>
+        <v>25.34632851851169</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>25.19857127413754</v>
+        <v>25.19857127413756</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>24.93644857386088</v>
+        <v>24.93644857386062</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>24.8695707226987</v>
+        <v>24.86957072269786</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>24.00499824152853</v>
+        <v>24.0049982415286</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>23.60601592539646</v>
+        <v>23.60601592539718</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>23.56066125980239</v>
+        <v>23.5606612598095</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>22.73942498426781</v>
+        <v>22.73942498426441</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>22.56927701430265</v>
+        <v>22.56927701430267</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>22.55411475509818</v>
+        <v>22.5541147550982</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>22.38057398410033</v>
+        <v>22.38057398410054</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>22.3595433261351</v>
+        <v>22.35954332613584</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>21.72742392980938</v>
+        <v>21.72742392981071</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>16.22483613079433</v>
+        <v>16.22483613079488</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>15.47941001512389</v>
+        <v>15.47941001512391</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>15.47941001512389</v>
+        <v>15.47941001512391</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>15.06377481594804</v>
+        <v>15.06377481594791</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>14.73071968651807</v>
+        <v>14.73071968651806</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>14.72284414602291</v>
+        <v>14.72284414602263</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>14.69005101782492</v>
+        <v>14.69005101782097</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>14.41415396467203</v>
+        <v>14.41415396466962</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>14.28809800164208</v>
+        <v>14.2880980016422</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>14.19417253467519</v>
+        <v>14.19417253467513</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>13.31150937226775</v>
+        <v>13.3115093722679</v>
       </c>
       <c r="C236">
         <v>1e-05</v>
@@ -4868,7 +4868,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>13.21962993612964</v>
+        <v>13.21962993612977</v>
       </c>
       <c r="C237">
         <v>1e-05</v>
@@ -4879,7 +4879,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>13.15314008227992</v>
+        <v>13.15314008228041</v>
       </c>
       <c r="C238">
         <v>1e-05</v>
@@ -4901,7 +4901,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>13.05117507616818</v>
+        <v>13.05117507625435</v>
       </c>
       <c r="C240">
         <v>1e-05</v>
@@ -4934,7 +4934,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>12.71479415068105</v>
+        <v>12.7147941506808</v>
       </c>
       <c r="C243">
         <v>1e-05</v>
@@ -4945,7 +4945,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>12.57925267189184</v>
+        <v>12.57925267189183</v>
       </c>
       <c r="C244">
         <v>1e-05</v>
@@ -4967,7 +4967,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>12.45249798050254</v>
+        <v>12.45249798050258</v>
       </c>
       <c r="C246">
         <v>1e-05</v>
@@ -4989,7 +4989,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>11.62041910620282</v>
+        <v>11.62041910620095</v>
       </c>
       <c r="C248">
         <v>2e-05</v>
@@ -5022,7 +5022,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>11.54950257397265</v>
+        <v>11.54950257397264</v>
       </c>
       <c r="C251">
         <v>2e-05</v>
@@ -5033,7 +5033,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>11.52569929437806</v>
+        <v>11.52569929437828</v>
       </c>
       <c r="C252">
         <v>3e-05</v>
@@ -5044,7 +5044,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>11.52569929437806</v>
+        <v>11.52569929437828</v>
       </c>
       <c r="C253">
         <v>3e-05</v>
@@ -5066,7 +5066,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>11.51231136242867</v>
+        <v>11.51231136243007</v>
       </c>
       <c r="C255">
         <v>3e-05</v>
@@ -5088,7 +5088,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>11.44201886914953</v>
+        <v>11.44201886914916</v>
       </c>
       <c r="C257">
         <v>3e-05</v>
@@ -5132,7 +5132,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>11.12613387644572</v>
+        <v>11.12613387644557</v>
       </c>
       <c r="C261">
         <v>4e-05</v>
@@ -5231,7 +5231,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>10.62573134401815</v>
+        <v>10.62573134401842</v>
       </c>
       <c r="C270">
         <v>5e-05</v>
@@ -5253,7 +5253,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>10.55303562504496</v>
+        <v>10.55303562504495</v>
       </c>
       <c r="C272">
         <v>6e-05</v>
@@ -5495,7 +5495,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>9.950537420907752</v>
+        <v>9.950537420907779</v>
       </c>
       <c r="C294">
         <v>0.0001</v>
@@ -5572,7 +5572,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>9.830916730376986</v>
+        <v>9.830916730376988</v>
       </c>
       <c r="C301">
         <v>0.00011</v>
@@ -5583,7 +5583,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>9.830916730376986</v>
+        <v>9.830916730376988</v>
       </c>
       <c r="C302">
         <v>0.00011</v>
@@ -5605,7 +5605,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>9.820160191056779</v>
+        <v>9.82016019105677</v>
       </c>
       <c r="C304">
         <v>0.00011</v>
@@ -5616,7 +5616,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>9.820160191056779</v>
+        <v>9.82016019105677</v>
       </c>
       <c r="C305">
         <v>0.00011</v>
@@ -5649,7 +5649,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>9.819405912868151</v>
+        <v>9.819405912868159</v>
       </c>
       <c r="C308">
         <v>0.00011</v>
@@ -5660,7 +5660,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>9.819405912868151</v>
+        <v>9.819405912868159</v>
       </c>
       <c r="C309">
         <v>0.00011</v>
@@ -5671,7 +5671,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>9.819316748661825</v>
+        <v>9.819316748661835</v>
       </c>
       <c r="C310">
         <v>0.00011</v>
@@ -5682,7 +5682,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>9.819316748661825</v>
+        <v>9.819316748661835</v>
       </c>
       <c r="C311">
         <v>0.00011</v>
@@ -5715,7 +5715,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>9.81773787317486</v>
+        <v>9.817737873174858</v>
       </c>
       <c r="C314">
         <v>0.00011</v>
@@ -5726,7 +5726,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>9.81773787317486</v>
+        <v>9.817737873174858</v>
       </c>
       <c r="C315">
         <v>0.00011</v>
@@ -5759,7 +5759,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>9.8175373519255</v>
+        <v>9.817537351925498</v>
       </c>
       <c r="C318">
         <v>0.00011</v>
@@ -5770,7 +5770,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>9.817503881272188</v>
+        <v>9.817503881272181</v>
       </c>
       <c r="C319">
         <v>0.00011</v>
@@ -5814,7 +5814,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>9.74133947224356</v>
+        <v>9.741339472245619</v>
       </c>
       <c r="C323">
         <v>0.00012</v>
@@ -5836,7 +5836,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>9.696298490216856</v>
+        <v>9.696298490216845</v>
       </c>
       <c r="C325">
         <v>0.00012</v>
@@ -5935,7 +5935,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>9.536477375750859</v>
+        <v>9.536477375750566</v>
       </c>
       <c r="C334">
         <v>0.00014</v>
@@ -6177,7 +6177,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>9.184226053234429</v>
+        <v>9.18422605323442</v>
       </c>
       <c r="C356">
         <v>0.00019</v>
@@ -6210,7 +6210,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>9.178258805505727</v>
+        <v>9.17825880550572</v>
       </c>
       <c r="C359">
         <v>0.00019</v>
@@ -6243,7 +6243,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>9.177163099241833</v>
+        <v>9.177163099241826</v>
       </c>
       <c r="C362">
         <v>0.00019</v>
@@ -6254,7 +6254,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>9.176603032453491</v>
+        <v>9.176603032453496</v>
       </c>
       <c r="C363">
         <v>0.00019</v>
@@ -6265,7 +6265,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>9.17652758878112</v>
+        <v>9.176527588781132</v>
       </c>
       <c r="C364">
         <v>0.00019</v>
@@ -6276,7 +6276,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>9.176019822943235</v>
+        <v>9.176019822943234</v>
       </c>
       <c r="C365">
         <v>0.00019</v>
@@ -6298,7 +6298,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>9.175800691281653</v>
+        <v>9.175800691281651</v>
       </c>
       <c r="C367">
         <v>0.00019</v>
@@ -6309,7 +6309,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>9.175722985531333</v>
+        <v>9.175722985531323</v>
       </c>
       <c r="C368">
         <v>0.00019</v>
@@ -6320,7 +6320,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>9.175607439467342</v>
+        <v>9.175607439467347</v>
       </c>
       <c r="C369">
         <v>0.00019</v>
@@ -6331,7 +6331,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>9.175386947435456</v>
+        <v>9.175386947435459</v>
       </c>
       <c r="C370">
         <v>0.00019</v>
@@ -6342,7 +6342,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>9.175370855701022</v>
+        <v>9.175370855701013</v>
       </c>
       <c r="C371">
         <v>0.00019</v>
@@ -6364,7 +6364,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>9.174957128885586</v>
+        <v>9.174957128885579</v>
       </c>
       <c r="C373">
         <v>0.00019</v>
@@ -6375,7 +6375,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>9.174896260079411</v>
+        <v>9.174896260079407</v>
       </c>
       <c r="C374">
         <v>0.00019</v>
@@ -6408,7 +6408,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>9.174792782284612</v>
+        <v>9.17479278228461</v>
       </c>
       <c r="C377">
         <v>0.00019</v>
@@ -6419,7 +6419,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>9.174760183878671</v>
+        <v>9.174760183878675</v>
       </c>
       <c r="C378">
         <v>0.00019</v>
@@ -6430,7 +6430,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>9.174725207639318</v>
+        <v>9.174725207639325</v>
       </c>
       <c r="C379">
         <v>0.00019</v>
@@ -6441,7 +6441,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>9.174644635793033</v>
+        <v>9.174644635793028</v>
       </c>
       <c r="C380">
         <v>0.00019</v>
@@ -6452,7 +6452,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>9.174634406519353</v>
+        <v>9.174634406519338</v>
       </c>
       <c r="C381">
         <v>0.00019</v>
@@ -6463,7 +6463,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>9.174607504551918</v>
+        <v>9.174607504551913</v>
       </c>
       <c r="C382">
         <v>0.00019</v>
@@ -6474,7 +6474,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>9.174584155778685</v>
+        <v>9.174584155778687</v>
       </c>
       <c r="C383">
         <v>0.00019</v>
@@ -6507,7 +6507,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>9.174468263711846</v>
+        <v>9.174468263711848</v>
       </c>
       <c r="C386">
         <v>0.00019</v>
@@ -6529,7 +6529,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>9.174310384192664</v>
+        <v>9.174310384192669</v>
       </c>
       <c r="C388">
         <v>0.00019</v>
@@ -6540,7 +6540,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>9.174213843542171</v>
+        <v>9.174213843542177</v>
       </c>
       <c r="C389">
         <v>0.00019</v>
@@ -6551,7 +6551,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>9.174117607999202</v>
+        <v>9.174117607999197</v>
       </c>
       <c r="C390">
         <v>0.00019</v>
@@ -6562,7 +6562,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>9.174103448907525</v>
+        <v>9.174103448907521</v>
       </c>
       <c r="C391">
         <v>0.00019</v>
@@ -6573,7 +6573,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>9.174062834149305</v>
+        <v>9.174062834149298</v>
       </c>
       <c r="C392">
         <v>0.00019</v>
@@ -6584,7 +6584,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>9.174005234132503</v>
+        <v>9.17400523413251</v>
       </c>
       <c r="C393">
         <v>0.00019</v>
@@ -6595,7 +6595,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>9.173971338111855</v>
+        <v>9.173971338111853</v>
       </c>
       <c r="C394">
         <v>0.00019</v>
@@ -6617,7 +6617,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>9.173923560979588</v>
+        <v>9.173923560979592</v>
       </c>
       <c r="C396">
         <v>0.00019</v>
@@ -6628,7 +6628,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>9.173877898903863</v>
+        <v>9.173877898903866</v>
       </c>
       <c r="C397">
         <v>0.00019</v>
@@ -6639,7 +6639,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>9.173836772691354</v>
+        <v>9.173836772691356</v>
       </c>
       <c r="C398">
         <v>0.00019</v>
@@ -6661,7 +6661,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>9.173777605604672</v>
+        <v>9.173777605604688</v>
       </c>
       <c r="C400">
         <v>0.00019</v>
@@ -6672,7 +6672,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>9.173766815772028</v>
+        <v>9.173766815772035</v>
       </c>
       <c r="C401">
         <v>0.00019</v>
@@ -6683,7 +6683,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>9.173755144187085</v>
+        <v>9.173755144187091</v>
       </c>
       <c r="C402">
         <v>0.00019</v>
@@ -6694,7 +6694,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>9.173754303820767</v>
+        <v>9.173754303820768</v>
       </c>
       <c r="C403">
         <v>0.00019</v>
@@ -6705,7 +6705,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>9.173753566608355</v>
+        <v>9.173753566608356</v>
       </c>
       <c r="C404">
         <v>0.00019</v>
@@ -6771,7 +6771,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>9.173599870383041</v>
+        <v>9.173599870383049</v>
       </c>
       <c r="C410">
         <v>0.00019</v>
@@ -6804,7 +6804,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>9.173516302759253</v>
+        <v>9.173516302759248</v>
       </c>
       <c r="C413">
         <v>0.00019</v>
@@ -6837,7 +6837,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>9.173488189695689</v>
+        <v>9.173488189695682</v>
       </c>
       <c r="C416">
         <v>0.00019</v>
@@ -6848,7 +6848,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>9.173487443741806</v>
+        <v>9.173487443741804</v>
       </c>
       <c r="C417">
         <v>0.00019</v>
@@ -6881,7 +6881,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>9.173431962580603</v>
+        <v>9.173431962580596</v>
       </c>
       <c r="C420">
         <v>0.00019</v>
@@ -6892,7 +6892,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>9.173417895355133</v>
+        <v>9.173417895355149</v>
       </c>
       <c r="C421">
         <v>0.00019</v>
@@ -6914,7 +6914,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>9.173417650686611</v>
+        <v>9.173417650686618</v>
       </c>
       <c r="C423">
         <v>0.00019</v>
@@ -6925,7 +6925,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>9.173417387152316</v>
+        <v>9.173417387152311</v>
       </c>
       <c r="C424">
         <v>0.00019</v>
@@ -6936,7 +6936,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>9.173415159708028</v>
+        <v>9.173415159708016</v>
       </c>
       <c r="C425">
         <v>0.00019</v>
@@ -6947,7 +6947,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>9.17340714376247</v>
+        <v>9.173407143762461</v>
       </c>
       <c r="C426">
         <v>0.00019</v>
@@ -6980,7 +6980,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>9.173361925037973</v>
+        <v>9.173361925037979</v>
       </c>
       <c r="C429">
         <v>0.00019</v>
@@ -6991,7 +6991,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>9.173361729448184</v>
+        <v>9.173361729448178</v>
       </c>
       <c r="C430">
         <v>0.00019</v>
@@ -7002,7 +7002,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>9.173361471283872</v>
+        <v>9.173361471283879</v>
       </c>
       <c r="C431">
         <v>0.00019</v>
@@ -7013,7 +7013,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>9.173333642017496</v>
+        <v>9.173333642017502</v>
       </c>
       <c r="C432">
         <v>0.00019</v>
@@ -7024,7 +7024,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>9.173333579373907</v>
+        <v>9.173333579373899</v>
       </c>
       <c r="C433">
         <v>0.00019</v>
@@ -7046,7 +7046,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>9.173275603445139</v>
+        <v>9.173275603445145</v>
       </c>
       <c r="C435">
         <v>0.00019</v>
@@ -7057,7 +7057,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>9.173263196790066</v>
+        <v>9.173263196790058</v>
       </c>
       <c r="C436">
         <v>0.00019</v>
@@ -7068,7 +7068,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>9.1732630736413</v>
+        <v>9.173263073641293</v>
       </c>
       <c r="C437">
         <v>0.00019</v>
@@ -7101,7 +7101,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>9.173248047107119</v>
+        <v>9.173248047107114</v>
       </c>
       <c r="C440">
         <v>0.00019</v>
@@ -7156,7 +7156,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>9.17322088518995</v>
+        <v>9.173220885189957</v>
       </c>
       <c r="C445">
         <v>0.00019</v>
@@ -7178,7 +7178,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>9.173220323866371</v>
+        <v>9.173220323866369</v>
       </c>
       <c r="C447">
         <v>0.00019</v>
@@ -7189,7 +7189,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>9.173206753920203</v>
+        <v>9.173206753920196</v>
       </c>
       <c r="C448">
         <v>0.00019</v>
@@ -7211,7 +7211,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>9.173192696576935</v>
+        <v>9.173192696576933</v>
       </c>
       <c r="C450">
         <v>0.00019</v>
@@ -7222,7 +7222,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>9.173192643420187</v>
+        <v>9.173192643420192</v>
       </c>
       <c r="C451">
         <v>0.00019</v>
@@ -7233,7 +7233,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>9.173178401785506</v>
+        <v>9.173178401785522</v>
       </c>
       <c r="C452">
         <v>0.00019</v>
@@ -7244,7 +7244,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>9.17317744989348</v>
+        <v>9.173177449893483</v>
       </c>
       <c r="C453">
         <v>0.00019</v>
@@ -7255,7 +7255,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>9.17317615293406</v>
+        <v>9.173176152934065</v>
       </c>
       <c r="C454">
         <v>0.00019</v>
@@ -7277,7 +7277,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>9.173150439063958</v>
+        <v>9.173150439063965</v>
       </c>
       <c r="C456">
         <v>0.00019</v>
@@ -7288,7 +7288,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>9.17315042045545</v>
+        <v>9.173150420455457</v>
       </c>
       <c r="C457">
         <v>0.00019</v>
@@ -7299,7 +7299,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>9.173150320754759</v>
+        <v>9.173150320754768</v>
       </c>
       <c r="C458">
         <v>0.00019</v>
@@ -7310,7 +7310,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>9.173136238727945</v>
+        <v>9.173136238727936</v>
       </c>
       <c r="C459">
         <v>0.00019</v>
@@ -7354,7 +7354,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>9.173093877105689</v>
+        <v>9.173093877105698</v>
       </c>
       <c r="C463">
         <v>0.00019</v>
@@ -7365,7 +7365,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>9.173079791585222</v>
+        <v>9.173079791585216</v>
       </c>
       <c r="C464">
         <v>0.00019</v>
@@ -7376,7 +7376,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>9.173064892892585</v>
+        <v>9.173064892892587</v>
       </c>
       <c r="C465">
         <v>0.00019</v>
@@ -7398,7 +7398,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>9.173051462457263</v>
+        <v>9.173051462457257</v>
       </c>
       <c r="C467">
         <v>0.00019</v>
@@ -7409,7 +7409,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>9.173037329721659</v>
+        <v>9.173037329721668</v>
       </c>
       <c r="C468">
         <v>0.00019</v>
@@ -7442,7 +7442,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>9.173009493060553</v>
+        <v>9.173009493060539</v>
       </c>
       <c r="C471">
         <v>0.00019</v>
@@ -7453,7 +7453,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>9.172996564863469</v>
+        <v>9.172996564863471</v>
       </c>
       <c r="C472">
         <v>0.00019</v>
@@ -7464,7 +7464,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>9.172952592084636</v>
+        <v>9.17295259208465</v>
       </c>
       <c r="C473">
         <v>0.00019</v>
@@ -7475,7 +7475,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>9.172858375933359</v>
+        <v>9.172858375933357</v>
       </c>
       <c r="C474">
         <v>0.00019</v>
@@ -7486,7 +7486,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>9.172848927051854</v>
+        <v>9.172848927051851</v>
       </c>
       <c r="C475">
         <v>0.00019</v>
@@ -7497,7 +7497,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>9.172810462967441</v>
+        <v>9.172810462967437</v>
       </c>
       <c r="C476">
         <v>0.00019</v>
@@ -7508,7 +7508,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>9.172781665213654</v>
+        <v>9.172781665213659</v>
       </c>
       <c r="C477">
         <v>0.00019</v>
@@ -7519,7 +7519,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>9.172669883266749</v>
+        <v>9.172669883266741</v>
       </c>
       <c r="C478">
         <v>0.00019</v>
@@ -7530,7 +7530,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>9.17266516128274</v>
+        <v>9.172665161282735</v>
       </c>
       <c r="C479">
         <v>0.00019</v>
@@ -7552,7 +7552,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>9.172443313253678</v>
+        <v>9.17244331325368</v>
       </c>
       <c r="C481">
         <v>0.00019</v>
@@ -7563,7 +7563,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>9.172341671984467</v>
+        <v>9.172341671984462</v>
       </c>
       <c r="C482">
         <v>0.00019</v>
@@ -7574,7 +7574,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>9.172288288171394</v>
+        <v>9.172288288171389</v>
       </c>
       <c r="C483">
         <v>0.00019</v>
@@ -7596,7 +7596,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>9.172174829911736</v>
+        <v>9.172174829911738</v>
       </c>
       <c r="C485">
         <v>0.00019</v>
@@ -7618,7 +7618,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>9.172001988500975</v>
+        <v>9.172001988500966</v>
       </c>
       <c r="C487">
         <v>0.00019</v>
@@ -7629,7 +7629,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>9.171995664127586</v>
+        <v>9.171995664127587</v>
       </c>
       <c r="C488">
         <v>0.00019</v>
@@ -7640,7 +7640,7 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>9.171995664127586</v>
+        <v>9.171995664127587</v>
       </c>
       <c r="C489">
         <v>0.00019</v>
@@ -7651,7 +7651,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>9.17197872025489</v>
+        <v>9.171978720254888</v>
       </c>
       <c r="C490">
         <v>0.00019</v>
@@ -7673,7 +7673,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>9.171620395272184</v>
+        <v>9.171620395272187</v>
       </c>
       <c r="C492">
         <v>0.00019</v>
@@ -7684,7 +7684,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>9.171542417597744</v>
+        <v>9.171542417597745</v>
       </c>
       <c r="C493">
         <v>0.00019</v>
@@ -7695,7 +7695,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>9.171512258979362</v>
+        <v>9.171512258979359</v>
       </c>
       <c r="C494">
         <v>0.00019</v>
@@ -7717,7 +7717,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>9.171347157507419</v>
+        <v>9.171347157507421</v>
       </c>
       <c r="C496">
         <v>0.00019</v>
@@ -7739,7 +7739,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>9.171319195852702</v>
+        <v>9.171319195852703</v>
       </c>
       <c r="C498">
         <v>0.00019</v>
@@ -7750,7 +7750,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>9.171260943908736</v>
+        <v>9.171260943908729</v>
       </c>
       <c r="C499">
         <v>0.00019</v>
@@ -7772,7 +7772,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>9.170963411860122</v>
+        <v>9.170963411860118</v>
       </c>
       <c r="C501">
         <v>0.00019</v>
@@ -7794,7 +7794,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>9.170951764251361</v>
+        <v>9.170951764251358</v>
       </c>
       <c r="C503">
         <v>0.00019</v>
@@ -7816,7 +7816,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>9.170764579892351</v>
+        <v>9.170764579892353</v>
       </c>
       <c r="C505">
         <v>0.00019</v>
@@ -7827,7 +7827,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>9.170649529884596</v>
+        <v>9.170649529884603</v>
       </c>
       <c r="C506">
         <v>0.00019</v>
@@ -7838,7 +7838,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>9.170411616745056</v>
+        <v>9.170411616745058</v>
       </c>
       <c r="C507">
         <v>0.00019</v>
@@ -7849,7 +7849,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>9.170410293546155</v>
+        <v>9.170410293546153</v>
       </c>
       <c r="C508">
         <v>0.00019</v>
@@ -7860,7 +7860,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>9.170198185988371</v>
+        <v>9.170198185988363</v>
       </c>
       <c r="C509">
         <v>0.00019</v>
@@ -7882,7 +7882,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>9.170031820742414</v>
+        <v>9.17003182074242</v>
       </c>
       <c r="C511">
         <v>0.00019</v>
@@ -7893,7 +7893,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>9.169977196596344</v>
+        <v>9.169977196596342</v>
       </c>
       <c r="C512">
         <v>0.00019</v>
@@ -7904,7 +7904,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>9.169657773555514</v>
+        <v>9.169657773555516</v>
       </c>
       <c r="C513">
         <v>0.00019</v>
@@ -7915,7 +7915,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>9.169466730303295</v>
+        <v>9.169466730303299</v>
       </c>
       <c r="C514">
         <v>0.00019</v>
@@ -7926,7 +7926,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>9.169420541665904</v>
+        <v>9.169420541665906</v>
       </c>
       <c r="C515">
         <v>0.00019</v>
@@ -7937,7 +7937,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>9.169330376414301</v>
+        <v>9.169330376414306</v>
       </c>
       <c r="C516">
         <v>0.00019</v>
@@ -7948,7 +7948,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>9.168994750395896</v>
+        <v>9.1689947503959</v>
       </c>
       <c r="C517">
         <v>0.00019</v>
@@ -7959,7 +7959,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>9.168774044936406</v>
+        <v>9.168774044936402</v>
       </c>
       <c r="C518">
         <v>0.00019</v>
@@ -7970,7 +7970,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>9.168646698036797</v>
+        <v>9.168646698036794</v>
       </c>
       <c r="C519">
         <v>0.00019</v>
@@ -8014,7 +8014,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>9.165521148667287</v>
+        <v>9.165521148667281</v>
       </c>
       <c r="C523">
         <v>0.00019</v>
@@ -8036,7 +8036,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>9.161293297453609</v>
+        <v>9.161293297453613</v>
       </c>
       <c r="C525">
         <v>0.00019</v>
@@ -8190,7 +8190,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>8.999601953931789</v>
+        <v>8.999601953931858</v>
       </c>
       <c r="C539">
         <v>0.00022</v>
@@ -8267,7 +8267,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>8.863879184535504</v>
+        <v>8.863879184535282</v>
       </c>
       <c r="C546">
         <v>0.00025</v>
@@ -8355,7 +8355,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>8.641164287983498</v>
+        <v>8.641164287983518</v>
       </c>
       <c r="C554">
         <v>0.0003</v>
@@ -8685,7 +8685,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>7.536928490427451</v>
+        <v>7.536928490427449</v>
       </c>
       <c r="C584">
         <v>0.00081</v>
@@ -8707,7 +8707,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>7.380035363744795</v>
+        <v>7.380035363744793</v>
       </c>
       <c r="C586">
         <v>0.0009300000000000001</v>
@@ -8740,7 +8740,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>7.228666438609553</v>
+        <v>7.228666438609559</v>
       </c>
       <c r="C589">
         <v>0.00106</v>
@@ -8751,7 +8751,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>7.228666438609553</v>
+        <v>7.228666438609559</v>
       </c>
       <c r="C590">
         <v>0.00106</v>
@@ -8828,7 +8828,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>6.953527777321746</v>
+        <v>6.953527777321744</v>
       </c>
       <c r="C597">
         <v>0.00136</v>
@@ -8850,7 +8850,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>6.72827227250286</v>
+        <v>6.728272272502863</v>
       </c>
       <c r="C599">
         <v>0.00167</v>
@@ -8883,7 +8883,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>6.65934556945415</v>
+        <v>6.659345569454201</v>
       </c>
       <c r="C602">
         <v>0.00178</v>
@@ -8905,7 +8905,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>6.643921574903089</v>
+        <v>6.643921574903139</v>
       </c>
       <c r="C604">
         <v>0.0018</v>
@@ -8971,7 +8971,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>6.510973191964953</v>
+        <v>6.510973191964907</v>
       </c>
       <c r="C610">
         <v>0.00203</v>
@@ -8982,7 +8982,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>6.415670068526835</v>
+        <v>6.415670068526692</v>
       </c>
       <c r="C611">
         <v>0.00222</v>
@@ -8993,7 +8993,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>6.367430537367573</v>
+        <v>6.367430537367575</v>
       </c>
       <c r="C612">
         <v>0.00232</v>
@@ -9004,7 +9004,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>6.32816761565158</v>
+        <v>6.328167615651223</v>
       </c>
       <c r="C613">
         <v>0.0024</v>
@@ -9015,7 +9015,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>6.328167615619889</v>
+        <v>6.328167615619719</v>
       </c>
       <c r="C614">
         <v>0.0024</v>
@@ -9048,7 +9048,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>6.184460342072365</v>
+        <v>6.184460342128404</v>
       </c>
       <c r="C617">
         <v>0.00274</v>
@@ -9059,7 +9059,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>6.113153790201937</v>
+        <v>6.113153790201936</v>
       </c>
       <c r="C618">
         <v>0.00292</v>
@@ -9081,7 +9081,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>5.935042950730915</v>
+        <v>5.935042950730688</v>
       </c>
       <c r="C620">
         <v>0.00343</v>
@@ -9158,7 +9158,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>5.060575401440468</v>
+        <v>5.060575401440389</v>
       </c>
       <c r="C627">
         <v>0.00768</v>
